--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/X-A-26-1-500 (Франкония 0,5 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/X-A-26-1-500 (Франкония 0,5 л.).xlsx
@@ -17,14 +17,14 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$39</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>№Поз</t>
   </si>
@@ -143,19 +143,28 @@
     <t>Кол-во брака, шт</t>
   </si>
   <si>
-    <t>Начальник УРФ                                             Е.А. Козинов</t>
-  </si>
-  <si>
     <t>Дата поставки  14.08.19 (c остаточным ресурсом 100 %)</t>
   </si>
   <si>
-    <t>Вставки графитовые</t>
-  </si>
-  <si>
-    <t>Х-А-26-1-500 BIE</t>
-  </si>
-  <si>
     <t>Формокомплект бутылки «Франкония 0,5»  тип X-А-26-1-500 (владелец Роудкул)</t>
+  </si>
+  <si>
+    <t>тип Х-28МСА-500-1</t>
+  </si>
+  <si>
+    <t>Ф-Х-28МСА-500-1</t>
+  </si>
+  <si>
+    <t>Х-26-1</t>
+  </si>
+  <si>
+    <t>Хватки</t>
+  </si>
+  <si>
+    <t>BAVARIA</t>
+  </si>
+  <si>
+    <t>Начальник УРФ                                            А.Д. Гавриленко</t>
   </si>
 </sst>
 </file>
@@ -710,7 +719,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -732,9 +741,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -756,9 +762,6 @@
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -782,16 +785,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -829,25 +825,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -862,15 +842,6 @@
     </xf>
     <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -904,12 +875,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -936,12 +901,45 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -966,9 +964,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1277,17 +1272,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F39" sqref="E39:J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="12.109375" customWidth="1"/>
     <col min="2" max="2" width="19.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
     <col min="4" max="4" width="10.88671875" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" customWidth="1"/>
     <col min="6" max="6" width="14.88671875" customWidth="1"/>
@@ -1300,659 +1295,733 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="108" t="s">
+      <c r="A1" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="M3" s="14"/>
-    </row>
-    <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
-      <c r="A4" s="41" t="s">
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.6">
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" ht="16.2" thickBot="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="M4" s="13"/>
+    </row>
+    <row r="5" spans="1:13" ht="66.599999999999994" thickBot="1">
+      <c r="A5" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B5" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C5" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D5" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E5" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F5" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G5" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H5" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I5" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="42" t="s">
+      <c r="J5" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="42" t="s">
+      <c r="K5" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="43" t="s">
+      <c r="L5" s="38" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.6">
-      <c r="A5" s="52">
+    <row r="6" spans="1:13" s="83" customFormat="1" ht="15.6">
+      <c r="A6" s="81">
         <v>1</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B6" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55">
-        <f>E5-F5</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="83"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.6">
-      <c r="A6" s="56">
-        <f>A5+1</f>
+      <c r="C6" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="47">
+        <v>26</v>
+      </c>
+      <c r="E6" s="47">
+        <v>26</v>
+      </c>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47">
+        <f>E6-F6</f>
+        <v>26</v>
+      </c>
+      <c r="H6" s="49"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="90"/>
+    </row>
+    <row r="7" spans="1:13" s="83" customFormat="1" ht="15.6">
+      <c r="A7" s="84">
+        <f>A6+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B7" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="97" t="s">
+      <c r="C7" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="9">
-        <f t="shared" ref="G6:G16" si="0">E6-F6</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="61"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="84"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.6">
-      <c r="A7" s="56">
-        <f t="shared" ref="A7:A16" si="1">A6+1</f>
+      <c r="D7" s="9">
+        <v>26</v>
+      </c>
+      <c r="E7" s="9">
+        <v>26</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9">
+        <f t="shared" ref="G7:G18" si="0">E7-F7</f>
+        <v>26</v>
+      </c>
+      <c r="H7" s="50"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="51"/>
+    </row>
+    <row r="8" spans="1:13" s="83" customFormat="1" ht="15.6">
+      <c r="A8" s="84">
+        <f t="shared" ref="A8:A9" si="1">A7+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="9">
+      <c r="B8" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="9">
+        <v>22</v>
+      </c>
+      <c r="E8" s="9">
+        <v>22</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="84"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.6">
-      <c r="A8" s="56">
+        <v>22</v>
+      </c>
+      <c r="H8" s="50"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="51"/>
+    </row>
+    <row r="9" spans="1:13" s="83" customFormat="1" ht="15.6">
+      <c r="A9" s="84">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="84"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.6">
-      <c r="A9" s="56">
-        <f t="shared" si="1"/>
+      <c r="B9" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="97"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="25"/>
+      <c r="C9" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="9">
+        <v>26</v>
+      </c>
+      <c r="E9" s="9">
+        <v>26</v>
+      </c>
+      <c r="F9" s="9"/>
       <c r="G9" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="59"/>
+        <v>26</v>
+      </c>
+      <c r="H9" s="51"/>
+      <c r="I9" s="48"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="84"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.6">
-      <c r="A10" s="56">
-        <f t="shared" si="1"/>
+      <c r="L9" s="51"/>
+    </row>
+    <row r="10" spans="1:13" s="83" customFormat="1" ht="15.6">
+      <c r="A10" s="84">
+        <f t="shared" ref="A10:A18" si="2">A9+1</f>
+        <v>5</v>
+      </c>
+      <c r="B10" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="97"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="25"/>
+      <c r="C10" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="9">
+        <v>26</v>
+      </c>
+      <c r="E10" s="9">
+        <v>26</v>
+      </c>
+      <c r="F10" s="9"/>
       <c r="G10" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="62"/>
-      <c r="I10" s="58"/>
+        <v>26</v>
+      </c>
+      <c r="H10" s="51"/>
+      <c r="I10" s="48"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="84"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.6">
-      <c r="A11" s="56">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B11" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="97"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="37"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="51"/>
+    </row>
+    <row r="11" spans="1:13" s="83" customFormat="1" ht="15.6">
+      <c r="A11" s="84">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B11" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="9">
+        <v>28</v>
+      </c>
+      <c r="E11" s="9">
+        <v>28</v>
+      </c>
+      <c r="F11" s="9"/>
       <c r="G11" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="62"/>
-      <c r="I11" s="59"/>
+        <v>28</v>
+      </c>
+      <c r="H11" s="51"/>
+      <c r="I11" s="48"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="35"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.6">
-      <c r="A12" s="56">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B12" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="38"/>
+      <c r="L11" s="51"/>
+    </row>
+    <row r="12" spans="1:13" s="83" customFormat="1" ht="15.6">
+      <c r="A12" s="84">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B12" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="9">
+        <v>19</v>
+      </c>
+      <c r="E12" s="9">
+        <v>19</v>
+      </c>
+      <c r="F12" s="9"/>
       <c r="G12" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="59"/>
+        <v>19</v>
+      </c>
+      <c r="H12" s="51"/>
+      <c r="I12" s="48"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="35"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.6">
-      <c r="A13" s="56">
-        <f t="shared" si="1"/>
+      <c r="L12" s="51"/>
+    </row>
+    <row r="13" spans="1:13" s="83" customFormat="1" ht="15.6">
+      <c r="A13" s="84">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B13" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="97"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="25"/>
+      <c r="C13" s="88" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="9">
+        <v>40</v>
+      </c>
+      <c r="E13" s="9">
+        <v>40</v>
+      </c>
+      <c r="F13" s="91"/>
       <c r="G13" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="59"/>
+        <v>40</v>
+      </c>
+      <c r="H13" s="51"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="84"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.6">
-      <c r="A14" s="56">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B14" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="97"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="37"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="86"/>
+    </row>
+    <row r="14" spans="1:13" s="83" customFormat="1" ht="15.6">
+      <c r="A14" s="84">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B14" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="88" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="9">
+        <v>17</v>
+      </c>
+      <c r="E14" s="9">
+        <v>17</v>
+      </c>
+      <c r="F14" s="92"/>
       <c r="G14" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="62"/>
-      <c r="I14" s="59"/>
+        <v>17</v>
+      </c>
+      <c r="H14" s="51"/>
+      <c r="I14" s="48"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="84"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.6">
-      <c r="A15" s="56">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B15" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="97"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="86"/>
+    </row>
+    <row r="15" spans="1:13" s="83" customFormat="1" ht="15.6">
+      <c r="A15" s="84">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B15" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="88"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="25"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="62"/>
-      <c r="I15" s="59"/>
+      <c r="H15" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="48"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="84"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.6">
-      <c r="A16" s="56">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B16" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="95"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="25"/>
+      <c r="L15" s="51"/>
+    </row>
+    <row r="16" spans="1:13" s="83" customFormat="1" ht="15.6">
+      <c r="A16" s="84">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B16" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="88" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="9">
+        <v>29</v>
+      </c>
+      <c r="E16" s="9">
+        <v>29</v>
+      </c>
+      <c r="F16" s="91"/>
       <c r="G16" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="62"/>
-      <c r="I16" s="92"/>
+        <v>29</v>
+      </c>
+      <c r="H16" s="51"/>
+      <c r="I16" s="48"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="84"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="76"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" ht="16.2" thickBot="1">
-      <c r="A18" s="1"/>
+      <c r="L16" s="51"/>
+    </row>
+    <row r="17" spans="1:12" s="83" customFormat="1" ht="15.6">
+      <c r="A17" s="84">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B17" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="88" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="9">
+        <v>40</v>
+      </c>
+      <c r="E17" s="9">
+        <v>40</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="H17" s="51"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="51"/>
+    </row>
+    <row r="18" spans="1:12" s="83" customFormat="1" ht="15.6">
+      <c r="A18" s="84">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
       <c r="B18" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="88"/>
+      <c r="D18" s="9">
+        <v>17</v>
+      </c>
+      <c r="E18" s="9">
+        <v>17</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="H18" s="51"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="51"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="62"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" ht="16.2" thickBot="1">
+      <c r="A20" s="1"/>
+      <c r="B20" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-    </row>
-    <row r="19" spans="1:12" ht="66.599999999999994" thickBot="1">
-      <c r="A19" s="46" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+    </row>
+    <row r="21" spans="1:12" ht="66.599999999999994" thickBot="1">
+      <c r="A21" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B21" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C21" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D21" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E21" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="47" t="s">
+      <c r="F21" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="48" t="s">
+      <c r="G21" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="49" t="s">
+      <c r="H21" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="50" t="s">
+      <c r="I21" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="85">
-        <f>E5*700000</f>
-        <v>0</v>
-      </c>
-      <c r="B20" s="87">
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="69">
+        <f>E6*700000</f>
+        <v>18200000</v>
+      </c>
+      <c r="B22" s="71">
         <v>43689</v>
       </c>
-      <c r="C20" s="89">
+      <c r="C22" s="73">
         <v>43693</v>
       </c>
-      <c r="D20" s="87">
+      <c r="D22" s="71">
         <v>43712</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E22" s="72">
         <v>613088</v>
       </c>
-      <c r="F20" s="88">
+      <c r="F22" s="72">
         <v>721402</v>
       </c>
-      <c r="G20" s="45" t="e">
-        <f t="shared" ref="G20" si="2">F20/A$20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" s="90">
-        <f>A20-F20</f>
-        <v>-721402</v>
-      </c>
-      <c r="I20" s="91" t="e">
-        <f>1-G20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20" s="80"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-    </row>
-    <row r="21" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A21" s="51"/>
-      <c r="B21" s="87"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A22" s="15"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="15"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
+      <c r="G22" s="40">
+        <f t="shared" ref="G22" si="3">F22/A$22</f>
+        <v>3.9637472527472531E-2</v>
+      </c>
+      <c r="H22" s="74">
+        <f>A22-F22</f>
+        <v>17478598</v>
+      </c>
+      <c r="I22" s="75">
+        <f>1-G22</f>
+        <v>0.96036252747252748</v>
+      </c>
+      <c r="J22" s="66"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+    </row>
+    <row r="23" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A23" s="46"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="15"/>
+    <row r="24" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A24" s="14"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="91"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="1"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="15"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="15"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="33"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="91"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="67"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="15"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="33"/>
+      <c r="E27" s="11"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="15"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="31"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="15"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="31"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+    <row r="30" spans="1:12">
+      <c r="A30" s="14"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A31" s="20" t="s">
+    <row r="31" spans="1:12">
+      <c r="A31" s="14"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" ht="13.8" thickBot="1">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" ht="13.8" thickBot="1">
+      <c r="A33" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="64">
-        <f>SUM(E20:E30)</f>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="53">
+        <f>SUM(E22:E32)</f>
         <v>613088</v>
       </c>
-      <c r="F31" s="63">
-        <f>SUM(F20:F30)</f>
+      <c r="F33" s="52">
+        <f>SUM(F22:F32)</f>
         <v>721402</v>
       </c>
-      <c r="G31" s="27" t="e">
-        <f>SUM(G20:G30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31" s="23">
-        <f>A20-F31</f>
-        <v>-721402</v>
-      </c>
-      <c r="I31" s="36" t="e">
-        <f>1-G31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J31" s="82"/>
-      <c r="K31" s="82"/>
-      <c r="L31" s="82"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A35" s="105" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="105"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="G33" s="25">
+        <f>SUM(G22:G32)</f>
+        <v>3.9637472527472531E-2</v>
+      </c>
+      <c r="H33" s="22">
+        <f>A22-F33</f>
+        <v>17478598</v>
+      </c>
+      <c r="I33" s="33">
+        <f>1-G33</f>
+        <v>0.96036252747252748</v>
+      </c>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="68"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="102" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="102"/>
-      <c r="C36" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>18</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -1960,252 +2029,281 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="100">
-        <f>A20-F31</f>
-        <v>-721402</v>
-      </c>
-      <c r="B37" s="101"/>
-      <c r="C37" s="86" t="e">
-        <f>1-G31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D37" s="24" t="e">
-        <f>(C37/0.8)*100</f>
-        <v>#DIV/0!</v>
-      </c>
+    <row r="37" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A37" s="100" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="100"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="100"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="109" t="s">
-        <v>39</v>
-      </c>
-      <c r="H37" s="109"/>
-      <c r="I37" s="109"/>
-      <c r="J37" s="109"/>
-      <c r="K37" s="109"/>
-      <c r="L37" s="109"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="A38" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="97"/>
+      <c r="C38" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="15.6">
+      <c r="A39" s="95">
+        <f>A22-F33</f>
+        <v>17478598</v>
+      </c>
+      <c r="B39" s="96"/>
+      <c r="C39" s="70">
+        <f>1-G33</f>
+        <v>0.96036252747252748</v>
+      </c>
+      <c r="D39" s="23">
+        <f>(C39/0.8)*100</f>
+        <v>120.04531593406594</v>
+      </c>
+      <c r="E39" s="80" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="80"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="80"/>
+      <c r="I39" s="80"/>
+      <c r="J39" s="80"/>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="68"/>
-      <c r="B41" s="68"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="98"/>
-      <c r="J41" s="99"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="69"/>
-      <c r="B42" s="70"/>
-      <c r="C42" s="70"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15.6">
+      <c r="A42" s="1"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="70"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="69"/>
-      <c r="B43" s="70"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="70"/>
+      <c r="A43" s="54"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="93"/>
+      <c r="J43" s="94"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="69"/>
-      <c r="B44" s="70"/>
-      <c r="C44" s="70"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="70"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="56"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="69"/>
-      <c r="B45" s="70"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="70"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="56"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="69"/>
-      <c r="B46" s="70"/>
-      <c r="C46" s="70"/>
+      <c r="A46" s="55"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="56"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="70"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="56"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="69"/>
-      <c r="B47" s="70"/>
-      <c r="C47" s="72"/>
-      <c r="D47" s="73"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="72"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="56"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="69"/>
-      <c r="B48" s="70"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="70"/>
+      <c r="A48" s="55"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="56"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="69"/>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="71"/>
-      <c r="H49" s="70"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="58"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="69"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="70"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.6">
-      <c r="A51" s="1"/>
-      <c r="B51" s="106"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="107"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
+      <c r="A50" s="55"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="56"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="55"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="56"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="68"/>
-      <c r="B52" s="68"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="68"/>
-      <c r="E52" s="68"/>
-      <c r="F52" s="68"/>
-      <c r="G52" s="68"/>
-      <c r="H52" s="68"/>
-      <c r="I52" s="98"/>
-      <c r="J52" s="99"/>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="69"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="71"/>
-      <c r="G53" s="71"/>
-      <c r="H53" s="70"/>
-      <c r="I53" s="103"/>
-      <c r="J53" s="103"/>
+      <c r="A52" s="55"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="56"/>
+    </row>
+    <row r="53" spans="1:10" ht="15.6">
+      <c r="A53" s="1"/>
+      <c r="B53" s="101"/>
+      <c r="C53" s="101"/>
+      <c r="D53" s="102"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="69"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="72"/>
-      <c r="I54" s="103"/>
-      <c r="J54" s="103"/>
+      <c r="A54" s="54"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="93"/>
+      <c r="J54" s="94"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="1"/>
+      <c r="A55" s="55"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="B60" s="98"/>
-      <c r="C60" s="99"/>
-    </row>
-    <row r="67" spans="2:3">
-      <c r="B67" s="98"/>
-      <c r="C67" s="99"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="98"/>
+      <c r="J55" s="98"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="55"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="58"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="98"/>
+      <c r="J56" s="98"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="B62" s="93"/>
+      <c r="C62" s="94"/>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69" s="93"/>
+      <c r="C69" s="94"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
-  <mergeCells count="13">
+  <mergeCells count="12">
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="I43:J43"/>
     <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="G37:L37"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I55:J55"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2213,7 +2311,7 @@
   <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="37" max="12" man="1"/>
+    <brk id="39" max="12" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/X-A-26-1-500 (Франкония 0,5 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/X-A-26-1-500 (Франкония 0,5 л.).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>№Поз</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Начальник УРФ                                            А.Д. Гавриленко</t>
+  </si>
+  <si>
+    <t>Вес, гр. (ном. 385 гр.)</t>
   </si>
 </sst>
 </file>
@@ -178,7 +181,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -719,7 +722,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -840,8 +843,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -941,6 +942,35 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -952,19 +982,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1274,11 +1296,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F39" sqref="E39:J39"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33:F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.109375" customWidth="1"/>
     <col min="2" max="2" width="19.5546875" customWidth="1"/>
@@ -1294,39 +1316,39 @@
     <col min="12" max="12" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="99" t="s">
+    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.6">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="103" t="s">
         <v>39</v>
       </c>
@@ -1341,7 +1363,7 @@
       <c r="L3" s="35"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="16.2" thickBot="1">
+    <row r="4" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1353,7 +1375,7 @@
       <c r="K4" s="35"/>
       <c r="M4" s="13"/>
     </row>
-    <row r="5" spans="1:13" ht="66.599999999999994" thickBot="1">
+    <row r="5" spans="1:13" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="s">
         <v>0</v>
       </c>
@@ -1391,14 +1413,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="83" customFormat="1" ht="15.6">
-      <c r="A6" s="81">
+    <row r="6" spans="1:13" s="81" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="79">
         <v>1</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="85" t="s">
         <v>42</v>
       </c>
       <c r="D6" s="47">
@@ -1413,20 +1435,20 @@
         <v>26</v>
       </c>
       <c r="H6" s="49"/>
-      <c r="I6" s="89"/>
+      <c r="I6" s="87"/>
       <c r="J6" s="47"/>
       <c r="K6" s="47"/>
-      <c r="L6" s="90"/>
-    </row>
-    <row r="7" spans="1:13" s="83" customFormat="1" ht="15.6">
-      <c r="A7" s="84">
+      <c r="L6" s="88"/>
+    </row>
+    <row r="7" spans="1:13" s="81" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="82">
         <f>A6+1</f>
         <v>2</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="86" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="9">
@@ -1446,15 +1468,15 @@
       <c r="K7" s="9"/>
       <c r="L7" s="51"/>
     </row>
-    <row r="8" spans="1:13" s="83" customFormat="1" ht="15.6">
-      <c r="A8" s="84">
+    <row r="8" spans="1:13" s="81" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="82">
         <f t="shared" ref="A8:A9" si="1">A7+1</f>
         <v>3</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="86" t="s">
         <v>45</v>
       </c>
       <c r="D8" s="9">
@@ -1474,15 +1496,15 @@
       <c r="K8" s="9"/>
       <c r="L8" s="51"/>
     </row>
-    <row r="9" spans="1:13" s="83" customFormat="1" ht="15.6">
-      <c r="A9" s="84">
+    <row r="9" spans="1:13" s="81" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="82">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="86" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="9">
@@ -1502,15 +1524,15 @@
       <c r="K9" s="9"/>
       <c r="L9" s="51"/>
     </row>
-    <row r="10" spans="1:13" s="83" customFormat="1" ht="15.6">
-      <c r="A10" s="84">
+    <row r="10" spans="1:13" s="81" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="82">
         <f t="shared" ref="A10:A18" si="2">A9+1</f>
         <v>5</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="88" t="s">
+      <c r="C10" s="86" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="9">
@@ -1530,15 +1552,15 @@
       <c r="K10" s="9"/>
       <c r="L10" s="51"/>
     </row>
-    <row r="11" spans="1:13" s="83" customFormat="1" ht="15.6">
-      <c r="A11" s="84">
+    <row r="11" spans="1:13" s="81" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="82">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="86" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="9">
@@ -1558,15 +1580,15 @@
       <c r="K11" s="9"/>
       <c r="L11" s="51"/>
     </row>
-    <row r="12" spans="1:13" s="83" customFormat="1" ht="15.6">
-      <c r="A12" s="84">
+    <row r="12" spans="1:13" s="81" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="82">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="88" t="s">
+      <c r="C12" s="86" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="9">
@@ -1586,15 +1608,15 @@
       <c r="K12" s="9"/>
       <c r="L12" s="51"/>
     </row>
-    <row r="13" spans="1:13" s="83" customFormat="1" ht="15.6">
-      <c r="A13" s="84">
+    <row r="13" spans="1:13" s="81" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="82">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="88" t="s">
+      <c r="C13" s="86" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="9">
@@ -1603,7 +1625,7 @@
       <c r="E13" s="9">
         <v>40</v>
       </c>
-      <c r="F13" s="91"/>
+      <c r="F13" s="89"/>
       <c r="G13" s="9">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1613,17 +1635,17 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="51"/>
-      <c r="M13" s="86"/>
-    </row>
-    <row r="14" spans="1:13" s="83" customFormat="1" ht="15.6">
-      <c r="A14" s="84">
+      <c r="M13" s="84"/>
+    </row>
+    <row r="14" spans="1:13" s="81" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="82">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="88" t="s">
+      <c r="C14" s="86" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="9">
@@ -1632,7 +1654,7 @@
       <c r="E14" s="9">
         <v>17</v>
       </c>
-      <c r="F14" s="92"/>
+      <c r="F14" s="90"/>
       <c r="G14" s="9">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1642,17 +1664,17 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="51"/>
-      <c r="M14" s="86"/>
-    </row>
-    <row r="15" spans="1:13" s="83" customFormat="1" ht="15.6">
-      <c r="A15" s="84">
+      <c r="M14" s="84"/>
+    </row>
+    <row r="15" spans="1:13" s="81" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="82">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="88"/>
+      <c r="C15" s="86"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -1668,15 +1690,15 @@
       <c r="K15" s="9"/>
       <c r="L15" s="51"/>
     </row>
-    <row r="16" spans="1:13" s="83" customFormat="1" ht="15.6">
-      <c r="A16" s="84">
+    <row r="16" spans="1:13" s="81" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="82">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="B16" s="77" t="s">
+      <c r="B16" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="88" t="s">
+      <c r="C16" s="86" t="s">
         <v>43</v>
       </c>
       <c r="D16" s="9">
@@ -1685,7 +1707,7 @@
       <c r="E16" s="9">
         <v>29</v>
       </c>
-      <c r="F16" s="91"/>
+      <c r="F16" s="89"/>
       <c r="G16" s="9">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1696,15 +1718,15 @@
       <c r="K16" s="9"/>
       <c r="L16" s="51"/>
     </row>
-    <row r="17" spans="1:12" s="83" customFormat="1" ht="15.6">
-      <c r="A17" s="84">
+    <row r="17" spans="1:12" s="81" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="82">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="88" t="s">
+      <c r="C17" s="86" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="9">
@@ -1724,15 +1746,15 @@
       <c r="K17" s="9"/>
       <c r="L17" s="51"/>
     </row>
-    <row r="18" spans="1:12" s="83" customFormat="1" ht="15.6">
-      <c r="A18" s="84">
+    <row r="18" spans="1:12" s="81" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="82">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="B18" s="77" t="s">
+      <c r="B18" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="88"/>
+      <c r="C18" s="86"/>
       <c r="D18" s="9">
         <v>17</v>
       </c>
@@ -1745,14 +1767,14 @@
         <v>17</v>
       </c>
       <c r="H18" s="51"/>
-      <c r="I18" s="76"/>
+      <c r="I18" s="74"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="51"/>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="62"/>
-      <c r="B19" s="61"/>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="60"/>
+      <c r="B19" s="59"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1762,9 +1784,9 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:12" ht="16.2" thickBot="1">
+    <row r="20" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="61" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="13"/>
@@ -1774,11 +1796,11 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-    </row>
-    <row r="21" spans="1:12" ht="66.599999999999994" thickBot="1">
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+    </row>
+    <row r="21" spans="1:12" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="41" t="s">
         <v>22</v>
       </c>
@@ -1806,61 +1828,84 @@
       <c r="I21" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="69">
+      <c r="J21" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="67">
         <f>E6*700000</f>
         <v>18200000</v>
       </c>
-      <c r="B22" s="71">
+      <c r="B22" s="69">
         <v>43689</v>
       </c>
-      <c r="C22" s="73">
+      <c r="C22" s="71">
         <v>43693</v>
       </c>
-      <c r="D22" s="71">
+      <c r="D22" s="69">
         <v>43712</v>
       </c>
-      <c r="E22" s="72">
+      <c r="E22" s="70">
         <v>613088</v>
       </c>
-      <c r="F22" s="72">
+      <c r="F22" s="70">
         <v>721402</v>
       </c>
       <c r="G22" s="40">
         <f t="shared" ref="G22" si="3">F22/A$22</f>
         <v>3.9637472527472531E-2</v>
       </c>
-      <c r="H22" s="74">
+      <c r="H22" s="72">
         <f>A22-F22</f>
         <v>17478598</v>
       </c>
-      <c r="I22" s="75">
+      <c r="I22" s="73">
         <f>1-G22</f>
         <v>0.96036252747252748</v>
       </c>
-      <c r="J22" s="66"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-    </row>
-    <row r="23" spans="1:12" ht="12.75" customHeight="1">
+      <c r="J22" s="91"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+    </row>
+    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="46"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="1"/>
+      <c r="B23" s="69">
+        <v>43880</v>
+      </c>
+      <c r="C23" s="71">
+        <v>43887</v>
+      </c>
+      <c r="D23" s="69">
+        <v>43892</v>
+      </c>
+      <c r="E23" s="70">
+        <v>1333888</v>
+      </c>
+      <c r="F23" s="70">
+        <v>1397616</v>
+      </c>
+      <c r="G23" s="40">
+        <f t="shared" ref="G23" si="4">F23/A$22</f>
+        <v>7.6792087912087914E-2</v>
+      </c>
+      <c r="H23" s="72">
+        <f>H22-F23</f>
+        <v>16080982</v>
+      </c>
+      <c r="I23" s="73">
+        <f>I22-G23</f>
+        <v>0.88357043956043957</v>
+      </c>
+      <c r="J23" s="92">
+        <v>392</v>
+      </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" ht="12.75" customHeight="1">
+    <row r="24" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -1868,27 +1913,27 @@
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="40"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="H24" s="72"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="40"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="64"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -1896,13 +1941,13 @@
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="26"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="67"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="65"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -1910,13 +1955,13 @@
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="26"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="64"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -1924,13 +1969,13 @@
       <c r="E28" s="31"/>
       <c r="F28" s="11"/>
       <c r="G28" s="26"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="93"/>
+      <c r="K28" s="64"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -1940,11 +1985,11 @@
       <c r="G29" s="26"/>
       <c r="H29" s="31"/>
       <c r="I29" s="28"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="64"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -1954,11 +1999,11 @@
       <c r="G30" s="27"/>
       <c r="H30" s="31"/>
       <c r="I30" s="29"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="64"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -1968,11 +2013,11 @@
       <c r="G31" s="26"/>
       <c r="H31" s="31"/>
       <c r="I31" s="29"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="66"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="64"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" ht="13.8" thickBot="1">
+    <row r="32" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -1982,42 +2027,42 @@
       <c r="G32" s="24"/>
       <c r="H32" s="32"/>
       <c r="I32" s="30"/>
-      <c r="J32" s="1"/>
+      <c r="J32" s="96"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12" ht="13.8" thickBot="1">
+    <row r="33" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
       <c r="D33" s="21"/>
-      <c r="E33" s="53">
+      <c r="E33" s="109">
         <f>SUM(E22:E32)</f>
-        <v>613088</v>
-      </c>
-      <c r="F33" s="52">
+        <v>1946976</v>
+      </c>
+      <c r="F33" s="110">
         <f>SUM(F22:F32)</f>
-        <v>721402</v>
+        <v>2119018</v>
       </c>
       <c r="G33" s="25">
         <f>SUM(G22:G32)</f>
-        <v>3.9637472527472531E-2</v>
+        <v>0.11642956043956044</v>
       </c>
       <c r="H33" s="22">
         <f>A22-F33</f>
-        <v>17478598</v>
+        <v>16080982</v>
       </c>
       <c r="I33" s="33">
         <f>1-G33</f>
-        <v>0.96036252747252748</v>
-      </c>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="68"/>
-    </row>
-    <row r="36" spans="1:12">
+        <v>0.88357043956043957</v>
+      </c>
+      <c r="J33" s="97"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2029,13 +2074,13 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A37" s="100" t="s">
+    <row r="37" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="100"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="100"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -2043,11 +2088,11 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="97" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="97"/>
+      <c r="B38" s="108"/>
       <c r="C38" s="12" t="s">
         <v>17</v>
       </c>
@@ -2061,30 +2106,30 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="95">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="106">
         <f>A22-F33</f>
-        <v>17478598</v>
-      </c>
-      <c r="B39" s="96"/>
-      <c r="C39" s="70">
+        <v>16080982</v>
+      </c>
+      <c r="B39" s="107"/>
+      <c r="C39" s="68">
         <f>1-G33</f>
-        <v>0.96036252747252748</v>
+        <v>0.88357043956043957</v>
       </c>
       <c r="D39" s="23">
         <f>(C39/0.8)*100</f>
-        <v>120.04531593406594</v>
-      </c>
-      <c r="E39" s="80" t="s">
+        <v>110.44630494505495</v>
+      </c>
+      <c r="E39" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="F39" s="80"/>
-      <c r="G39" s="80"/>
-      <c r="H39" s="80"/>
-      <c r="I39" s="80"/>
-      <c r="J39" s="80"/>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="F39" s="78"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="78"/>
+      <c r="I39" s="78"/>
+      <c r="J39" s="78"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2092,7 +2137,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2107,7 +2152,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.6">
+    <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -2119,157 +2164,157 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="54"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="93"/>
-      <c r="J43" s="94"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="55"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="52"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="104"/>
+      <c r="J43" s="105"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="53"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="56"/>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="55"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="56"/>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="55"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="54"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="53"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="54"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="53"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="56"/>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="55"/>
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="56"/>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="55"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="54"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="53"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="54"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="53"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="57"/>
-      <c r="H48" s="56"/>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="55"/>
-      <c r="B49" s="56"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="58"/>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="55"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="56"/>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="55"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="57"/>
-      <c r="H51" s="56"/>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="55"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="56"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="54"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="53"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="56"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="53"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="54"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="53"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="54"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="53"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="56"/>
-    </row>
-    <row r="53" spans="1:10" ht="15.6">
+      <c r="F52" s="54"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="54"/>
+    </row>
+    <row r="53" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="101"/>
       <c r="C53" s="101"/>
       <c r="D53" s="102"/>
-      <c r="E53" s="60"/>
+      <c r="E53" s="58"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="54"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="93"/>
-      <c r="J54" s="94"/>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="55"/>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="52"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="104"/>
+      <c r="J54" s="105"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="53"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="57"/>
-      <c r="G55" s="57"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="98"/>
-      <c r="J55" s="98"/>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="100"/>
+      <c r="J55" s="100"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="53"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="58"/>
-      <c r="F56" s="58"/>
-      <c r="G56" s="58"/>
-      <c r="H56" s="58"/>
-      <c r="I56" s="98"/>
-      <c r="J56" s="98"/>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="D56" s="56"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="100"/>
+      <c r="J56" s="100"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2279,24 +2324,19 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="62" spans="1:10">
-      <c r="B62" s="93"/>
-      <c r="C62" s="94"/>
-    </row>
-    <row r="69" spans="2:3">
-      <c r="B69" s="93"/>
-      <c r="C69" s="94"/>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="104"/>
+      <c r="C62" s="105"/>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="104"/>
+      <c r="C69" s="105"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="A3:E3"/>
     <mergeCell ref="B69:C69"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A38:B38"/>
@@ -2304,6 +2344,11 @@
     <mergeCell ref="I43:J43"/>
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="A3:E3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2322,7 +2367,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2338,7 +2383,7 @@
       <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.88671875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/X-A-26-1-500 (Франкония 0,5 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/X-A-26-1-500 (Франкония 0,5 л.).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\Водочные\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF2F687-3F32-4123-B654-8E24DA93FAD7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="12" windowWidth="18780" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$39</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -173,7 +181,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
@@ -957,36 +965,36 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1083,6 +1091,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1118,6 +1143,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1293,46 +1335,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33:F33"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="77"/>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -1348,14 +1390,14 @@
       <c r="K2" s="77"/>
       <c r="L2" s="77"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="103" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
       <c r="F3" s="34"/>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
@@ -1363,7 +1405,7 @@
       <c r="L3" s="35"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1375,7 +1417,7 @@
       <c r="K4" s="35"/>
       <c r="M4" s="13"/>
     </row>
-    <row r="5" spans="1:13" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>0</v>
       </c>
@@ -1413,7 +1455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="81" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="81" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="79">
         <v>1</v>
       </c>
@@ -1440,7 +1482,7 @@
       <c r="K6" s="47"/>
       <c r="L6" s="88"/>
     </row>
-    <row r="7" spans="1:13" s="81" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="81" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="82">
         <f>A6+1</f>
         <v>2</v>
@@ -1468,7 +1510,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="51"/>
     </row>
-    <row r="8" spans="1:13" s="81" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="81" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" s="82">
         <f t="shared" ref="A8:A9" si="1">A7+1</f>
         <v>3</v>
@@ -1496,7 +1538,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="51"/>
     </row>
-    <row r="9" spans="1:13" s="81" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="81" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A9" s="82">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1524,7 +1566,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="51"/>
     </row>
-    <row r="10" spans="1:13" s="81" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="81" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A10" s="82">
         <f t="shared" ref="A10:A18" si="2">A9+1</f>
         <v>5</v>
@@ -1552,7 +1594,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="51"/>
     </row>
-    <row r="11" spans="1:13" s="81" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="81" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A11" s="82">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -1580,7 +1622,7 @@
       <c r="K11" s="9"/>
       <c r="L11" s="51"/>
     </row>
-    <row r="12" spans="1:13" s="81" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="81" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A12" s="82">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -1608,7 +1650,7 @@
       <c r="K12" s="9"/>
       <c r="L12" s="51"/>
     </row>
-    <row r="13" spans="1:13" s="81" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="81" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" s="82">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -1637,7 +1679,7 @@
       <c r="L13" s="51"/>
       <c r="M13" s="84"/>
     </row>
-    <row r="14" spans="1:13" s="81" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="81" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="82">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -1666,7 +1708,7 @@
       <c r="L14" s="51"/>
       <c r="M14" s="84"/>
     </row>
-    <row r="15" spans="1:13" s="81" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="81" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="82">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -1690,7 +1732,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="51"/>
     </row>
-    <row r="16" spans="1:13" s="81" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="81" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="82">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -1718,7 +1760,7 @@
       <c r="K16" s="9"/>
       <c r="L16" s="51"/>
     </row>
-    <row r="17" spans="1:12" s="81" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="81" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="82">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -1746,7 +1788,7 @@
       <c r="K17" s="9"/>
       <c r="L17" s="51"/>
     </row>
-    <row r="18" spans="1:12" s="81" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="81" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" s="82">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -1772,7 +1814,7 @@
       <c r="K18" s="9"/>
       <c r="L18" s="51"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="60"/>
       <c r="B19" s="59"/>
       <c r="C19" s="1"/>
@@ -1784,7 +1826,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="61" t="s">
         <v>10</v>
@@ -1800,7 +1842,7 @@
       <c r="K20" s="62"/>
       <c r="L20" s="62"/>
     </row>
-    <row r="21" spans="1:12" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="41" t="s">
         <v>22</v>
       </c>
@@ -1834,7 +1876,7 @@
       <c r="K21" s="63"/>
       <c r="L21" s="63"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="67">
         <f>E6*700000</f>
         <v>18200000</v>
@@ -1870,7 +1912,7 @@
       <c r="K22" s="56"/>
       <c r="L22" s="56"/>
     </row>
-    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="46"/>
       <c r="B23" s="69">
         <v>43880</v>
@@ -1905,7 +1947,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -1919,7 +1961,7 @@
       <c r="K24" s="56"/>
       <c r="L24" s="56"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="76"/>
       <c r="C25" s="76"/>
@@ -1933,7 +1975,7 @@
       <c r="K25" s="64"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -1947,7 +1989,7 @@
       <c r="K26" s="65"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -1961,7 +2003,7 @@
       <c r="K27" s="64"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -1975,7 +2017,7 @@
       <c r="K28" s="64"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -1989,7 +2031,7 @@
       <c r="K29" s="64"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -2003,7 +2045,7 @@
       <c r="K30" s="64"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -2017,7 +2059,7 @@
       <c r="K31" s="64"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -2031,18 +2073,18 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
       <c r="D33" s="21"/>
-      <c r="E33" s="109">
+      <c r="E33" s="98">
         <f>SUM(E22:E32)</f>
         <v>1946976</v>
       </c>
-      <c r="F33" s="110">
+      <c r="F33" s="99">
         <f>SUM(F22:F32)</f>
         <v>2119018</v>
       </c>
@@ -2062,7 +2104,7 @@
       <c r="K33" s="66"/>
       <c r="L33" s="66"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2074,13 +2116,13 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="99" t="s">
+    <row r="37" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="99"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="107"/>
+      <c r="D37" s="107"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -2088,11 +2130,11 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="108" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="108"/>
+      <c r="B38" s="104"/>
       <c r="C38" s="12" t="s">
         <v>17</v>
       </c>
@@ -2106,12 +2148,12 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="106">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="102">
         <f>A22-F33</f>
         <v>16080982</v>
       </c>
-      <c r="B39" s="107"/>
+      <c r="B39" s="103"/>
       <c r="C39" s="68">
         <f>1-G33</f>
         <v>0.88357043956043957</v>
@@ -2129,7 +2171,7 @@
       <c r="I39" s="78"/>
       <c r="J39" s="78"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2137,7 +2179,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2152,7 +2194,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -2164,7 +2206,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="52"/>
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>
@@ -2173,10 +2215,10 @@
       <c r="F43" s="52"/>
       <c r="G43" s="52"/>
       <c r="H43" s="52"/>
-      <c r="I43" s="104"/>
-      <c r="J43" s="105"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I43" s="100"/>
+      <c r="J43" s="101"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="53"/>
       <c r="B44" s="54"/>
       <c r="C44" s="54"/>
@@ -2186,7 +2228,7 @@
       <c r="G44" s="55"/>
       <c r="H44" s="54"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="53"/>
       <c r="B45" s="54"/>
       <c r="C45" s="54"/>
@@ -2196,7 +2238,7 @@
       <c r="G45" s="55"/>
       <c r="H45" s="54"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="53"/>
       <c r="B46" s="54"/>
       <c r="C46" s="54"/>
@@ -2206,7 +2248,7 @@
       <c r="G46" s="55"/>
       <c r="H46" s="54"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="53"/>
       <c r="B47" s="54"/>
       <c r="C47" s="54"/>
@@ -2216,7 +2258,7 @@
       <c r="G47" s="55"/>
       <c r="H47" s="54"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="53"/>
       <c r="B48" s="54"/>
       <c r="C48" s="54"/>
@@ -2226,7 +2268,7 @@
       <c r="G48" s="55"/>
       <c r="H48" s="54"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="53"/>
       <c r="B49" s="54"/>
       <c r="C49" s="56"/>
@@ -2236,7 +2278,7 @@
       <c r="G49" s="56"/>
       <c r="H49" s="56"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="53"/>
       <c r="B50" s="54"/>
       <c r="C50" s="54"/>
@@ -2246,7 +2288,7 @@
       <c r="G50" s="55"/>
       <c r="H50" s="54"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="53"/>
       <c r="B51" s="54"/>
       <c r="C51" s="54"/>
@@ -2256,7 +2298,7 @@
       <c r="G51" s="55"/>
       <c r="H51" s="54"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="53"/>
       <c r="B52" s="54"/>
       <c r="C52" s="54"/>
@@ -2266,11 +2308,11 @@
       <c r="G52" s="55"/>
       <c r="H52" s="54"/>
     </row>
-    <row r="53" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="101"/>
-      <c r="C53" s="101"/>
-      <c r="D53" s="102"/>
+      <c r="B53" s="108"/>
+      <c r="C53" s="108"/>
+      <c r="D53" s="109"/>
       <c r="E53" s="58"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -2278,7 +2320,7 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="52"/>
       <c r="B54" s="52"/>
       <c r="C54" s="52"/>
@@ -2287,10 +2329,10 @@
       <c r="F54" s="52"/>
       <c r="G54" s="52"/>
       <c r="H54" s="52"/>
-      <c r="I54" s="104"/>
-      <c r="J54" s="105"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I54" s="100"/>
+      <c r="J54" s="101"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="53"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2299,10 +2341,10 @@
       <c r="F55" s="55"/>
       <c r="G55" s="55"/>
       <c r="H55" s="54"/>
-      <c r="I55" s="100"/>
-      <c r="J55" s="100"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I55" s="105"/>
+      <c r="J55" s="105"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="53"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2311,10 +2353,10 @@
       <c r="F56" s="56"/>
       <c r="G56" s="56"/>
       <c r="H56" s="56"/>
-      <c r="I56" s="100"/>
-      <c r="J56" s="100"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I56" s="105"/>
+      <c r="J56" s="105"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2324,19 +2366,24 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="104"/>
-      <c r="C62" s="105"/>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="104"/>
-      <c r="C69" s="105"/>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B62" s="100"/>
+      <c r="C62" s="101"/>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B69" s="100"/>
+      <c r="C69" s="101"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="A3:E3"/>
     <mergeCell ref="B69:C69"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A38:B38"/>
@@ -2344,16 +2391,11 @@
     <mergeCell ref="I43:J43"/>
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="A3:E3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="39" max="12" man="1"/>
@@ -2362,12 +2404,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2376,24 +2418,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/X-A-26-1-500 (Франкония 0,5 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/X-A-26-1-500 (Франкония 0,5 л.).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\Водочные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF2F687-3F32-4123-B654-8E24DA93FAD7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE56C2A7-1E60-4E2E-A76A-B10C93A92F9B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -351,7 +351,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -431,19 +431,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -521,17 +508,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -562,32 +538,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -730,7 +680,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -741,7 +691,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -759,44 +708,19 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -805,44 +729,44 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -884,23 +808,23 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -909,15 +833,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -932,16 +855,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -950,30 +873,27 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1338,8 +1258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1359,50 +1279,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77" t="s">
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="34"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="22"/>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1413,410 +1333,414 @@
       <c r="G4" s="6"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="M4" s="13"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="38" t="s">
+      <c r="L5" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="81" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="79">
+    <row r="6" spans="1:13" s="68" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="66">
         <v>1</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="35">
         <v>26</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="35">
         <v>26</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47">
+      <c r="F6" s="35">
+        <v>3</v>
+      </c>
+      <c r="G6" s="35">
         <f>E6-F6</f>
-        <v>26</v>
-      </c>
-      <c r="H6" s="49"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="88"/>
-    </row>
-    <row r="7" spans="1:13" s="81" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="82">
+        <v>23</v>
+      </c>
+      <c r="H6" s="37"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="75"/>
+    </row>
+    <row r="7" spans="1:13" s="68" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="69">
         <f>A6+1</f>
         <v>2</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>26</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>26</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9">
+      <c r="F7" s="8">
+        <v>3</v>
+      </c>
+      <c r="G7" s="8">
         <f t="shared" ref="G7:G18" si="0">E7-F7</f>
-        <v>26</v>
-      </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="51"/>
-    </row>
-    <row r="8" spans="1:13" s="81" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="82">
+        <v>23</v>
+      </c>
+      <c r="H7" s="38"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="39"/>
+    </row>
+    <row r="8" spans="1:13" s="68" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="69">
         <f t="shared" ref="A8:A9" si="1">A7+1</f>
         <v>3</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>22</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>22</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9">
+      <c r="F8" s="8"/>
+      <c r="G8" s="8">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="51"/>
-    </row>
-    <row r="9" spans="1:13" s="81" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="82">
+      <c r="H8" s="38"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="39"/>
+    </row>
+    <row r="9" spans="1:13" s="68" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="69">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>26</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>26</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="51"/>
-    </row>
-    <row r="10" spans="1:13" s="81" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="82">
+      <c r="H9" s="39"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="39"/>
+    </row>
+    <row r="10" spans="1:13" s="68" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="69">
         <f t="shared" ref="A10:A18" si="2">A9+1</f>
         <v>5</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>26</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>26</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="H10" s="51"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="51"/>
-    </row>
-    <row r="11" spans="1:13" s="81" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="82">
+      <c r="H10" s="39"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="39"/>
+    </row>
+    <row r="11" spans="1:13" s="68" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="69">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>28</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>28</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="H11" s="51"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="51"/>
-    </row>
-    <row r="12" spans="1:13" s="81" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="82">
+      <c r="H11" s="39"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="39"/>
+    </row>
+    <row r="12" spans="1:13" s="68" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="69">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>19</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>19</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="H12" s="51"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="51"/>
-    </row>
-    <row r="13" spans="1:13" s="81" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="82">
+      <c r="H12" s="39"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="39"/>
+    </row>
+    <row r="13" spans="1:13" s="68" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="69">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="86" t="s">
+      <c r="C13" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>40</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>40</v>
       </c>
-      <c r="F13" s="89"/>
-      <c r="G13" s="9">
+      <c r="F13" s="76"/>
+      <c r="G13" s="8">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H13" s="51"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="84"/>
-    </row>
-    <row r="14" spans="1:13" s="81" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="82">
+      <c r="H13" s="39"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="71"/>
+    </row>
+    <row r="14" spans="1:13" s="68" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="69">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>17</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>17</v>
       </c>
-      <c r="F14" s="90"/>
-      <c r="G14" s="9">
+      <c r="F14" s="77"/>
+      <c r="G14" s="8">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="H14" s="51"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="84"/>
-    </row>
-    <row r="15" spans="1:13" s="81" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="82">
+      <c r="H14" s="39"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="71"/>
+    </row>
+    <row r="15" spans="1:13" s="68" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="69">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9">
+      <c r="C15" s="73"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="51" t="s">
+      <c r="H15" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="48"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="51"/>
-    </row>
-    <row r="16" spans="1:13" s="81" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="82">
+      <c r="I15" s="36"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="39"/>
+    </row>
+    <row r="16" spans="1:13" s="68" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="69">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="86" t="s">
+      <c r="C16" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>29</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>29</v>
       </c>
-      <c r="F16" s="89"/>
-      <c r="G16" s="9">
+      <c r="F16" s="76"/>
+      <c r="G16" s="8">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="H16" s="51"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="51"/>
-    </row>
-    <row r="17" spans="1:12" s="81" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="82">
+      <c r="H16" s="39"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="39"/>
+    </row>
+    <row r="17" spans="1:12" s="68" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="69">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>40</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>40</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9">
+      <c r="F17" s="8"/>
+      <c r="G17" s="8">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H17" s="51"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="51"/>
-    </row>
-    <row r="18" spans="1:12" s="81" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="82">
+      <c r="H17" s="39"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="39"/>
+    </row>
+    <row r="18" spans="1:12" s="68" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="69">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="86"/>
-      <c r="D18" s="9">
+      <c r="C18" s="73"/>
+      <c r="D18" s="8">
         <v>17</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>17</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9">
+      <c r="F18" s="8"/>
+      <c r="G18" s="8">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="H18" s="51"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="51"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="39"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="60"/>
-      <c r="B19" s="59"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1828,281 +1752,365 @@
     </row>
     <row r="20" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
     </row>
     <row r="21" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="42" t="s">
+      <c r="F21" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="43" t="s">
+      <c r="G21" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="44" t="s">
+      <c r="H21" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="45" t="s">
+      <c r="I21" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="45" t="s">
+      <c r="J21" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="67">
+      <c r="A22" s="55">
         <f>E6*700000</f>
         <v>18200000</v>
       </c>
-      <c r="B22" s="69">
+      <c r="B22" s="57">
         <v>43689</v>
       </c>
-      <c r="C22" s="71">
+      <c r="C22" s="59">
         <v>43693</v>
       </c>
-      <c r="D22" s="69">
+      <c r="D22" s="57">
         <v>43712</v>
       </c>
-      <c r="E22" s="70">
+      <c r="E22" s="58">
         <v>613088</v>
       </c>
-      <c r="F22" s="70">
+      <c r="F22" s="58">
         <v>721402</v>
       </c>
-      <c r="G22" s="40">
+      <c r="G22" s="28">
         <f t="shared" ref="G22" si="3">F22/A$22</f>
         <v>3.9637472527472531E-2</v>
       </c>
-      <c r="H22" s="72">
+      <c r="H22" s="60">
         <f>A22-F22</f>
         <v>17478598</v>
       </c>
-      <c r="I22" s="73">
+      <c r="I22" s="61">
         <f>1-G22</f>
         <v>0.96036252747252748</v>
       </c>
-      <c r="J22" s="91"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="46"/>
-      <c r="B23" s="69">
+      <c r="A23" s="34"/>
+      <c r="B23" s="57">
         <v>43880</v>
       </c>
-      <c r="C23" s="71">
+      <c r="C23" s="59">
         <v>43887</v>
       </c>
-      <c r="D23" s="69">
+      <c r="D23" s="57">
         <v>43892</v>
       </c>
-      <c r="E23" s="70">
+      <c r="E23" s="58">
         <v>1333888</v>
       </c>
-      <c r="F23" s="70">
+      <c r="F23" s="58">
         <v>1397616</v>
       </c>
-      <c r="G23" s="40">
+      <c r="G23" s="28">
         <f t="shared" ref="G23" si="4">F23/A$22</f>
         <v>7.6792087912087914E-2</v>
       </c>
-      <c r="H23" s="72">
-        <f>H22-F23</f>
+      <c r="H23" s="60">
+        <f t="shared" ref="H23:I25" si="5">H22-F23</f>
         <v>16080982</v>
       </c>
-      <c r="I23" s="73">
-        <f>I22-G23</f>
+      <c r="I23" s="61">
+        <f t="shared" si="5"/>
         <v>0.88357043956043957</v>
       </c>
-      <c r="J23" s="92">
+      <c r="J23" s="79">
         <v>392</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="9">
+        <v>44013</v>
+      </c>
+      <c r="C24" s="9">
+        <v>44018</v>
+      </c>
+      <c r="D24" s="9">
+        <v>44029</v>
+      </c>
+      <c r="E24" s="10">
+        <v>961656</v>
+      </c>
+      <c r="F24" s="10">
+        <v>1036443</v>
+      </c>
+      <c r="G24" s="28">
+        <f t="shared" ref="G24" si="6">F24/A$22</f>
+        <v>5.694741758241758E-2</v>
+      </c>
+      <c r="H24" s="60">
+        <f t="shared" si="5"/>
+        <v>15044539</v>
+      </c>
+      <c r="I24" s="61">
+        <f t="shared" si="5"/>
+        <v>0.82662302197802195</v>
+      </c>
+      <c r="J24" s="80">
+        <v>391</v>
+      </c>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="64"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="9">
+        <v>44081</v>
+      </c>
+      <c r="C25" s="9">
+        <v>44088</v>
+      </c>
+      <c r="D25" s="9">
+        <v>44105</v>
+      </c>
+      <c r="E25" s="10">
+        <v>1333438</v>
+      </c>
+      <c r="F25" s="10">
+        <v>1399836</v>
+      </c>
+      <c r="G25" s="28">
+        <f t="shared" ref="G25:G27" si="7">F25/A$22</f>
+        <v>7.6914065934065939E-2</v>
+      </c>
+      <c r="H25" s="60">
+        <f t="shared" si="5"/>
+        <v>13644703</v>
+      </c>
+      <c r="I25" s="61">
+        <f t="shared" si="5"/>
+        <v>0.74970895604395604</v>
+      </c>
+      <c r="J25" s="80">
+        <v>391</v>
+      </c>
+      <c r="K25" s="52"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="65"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="9">
+        <v>44124</v>
+      </c>
+      <c r="C26" s="9">
+        <v>44127</v>
+      </c>
+      <c r="D26" s="9">
+        <v>44137</v>
+      </c>
+      <c r="E26" s="10">
+        <v>658764</v>
+      </c>
+      <c r="F26" s="10">
+        <v>709612</v>
+      </c>
+      <c r="G26" s="28">
+        <f t="shared" si="7"/>
+        <v>3.898967032967033E-2</v>
+      </c>
+      <c r="H26" s="60">
+        <f t="shared" ref="H26" si="8">H25-F26</f>
+        <v>12935091</v>
+      </c>
+      <c r="I26" s="61">
+        <f t="shared" ref="I26" si="9">I25-G26</f>
+        <v>0.71071928571428566</v>
+      </c>
+      <c r="J26" s="80">
+        <v>391</v>
+      </c>
+      <c r="K26" s="53"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="64"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="9">
+        <v>44260</v>
+      </c>
+      <c r="C27" s="9">
+        <v>44266</v>
+      </c>
+      <c r="D27" s="9">
+        <v>44287</v>
+      </c>
+      <c r="E27" s="10">
+        <v>1143216</v>
+      </c>
+      <c r="F27" s="10">
+        <v>1211070</v>
+      </c>
+      <c r="G27" s="28">
+        <f t="shared" si="7"/>
+        <v>6.6542307692307692E-2</v>
+      </c>
+      <c r="H27" s="60">
+        <f t="shared" ref="H27" si="10">H26-F27</f>
+        <v>11724021</v>
+      </c>
+      <c r="I27" s="61">
+        <f t="shared" ref="I27" si="11">I26-G27</f>
+        <v>0.64417697802197793</v>
+      </c>
+      <c r="J27" s="80">
+        <v>392</v>
+      </c>
+      <c r="K27" s="52"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="93"/>
-      <c r="K28" s="64"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="52"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="93"/>
-      <c r="K29" s="64"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="52"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="64"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="52"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="64"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="52"/>
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="96"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="80"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="98">
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="82">
         <f>SUM(E22:E32)</f>
-        <v>1946976</v>
-      </c>
-      <c r="F33" s="99">
+        <v>6044050</v>
+      </c>
+      <c r="F33" s="83">
         <f>SUM(F22:F32)</f>
-        <v>2119018</v>
-      </c>
-      <c r="G33" s="25">
+        <v>6475979</v>
+      </c>
+      <c r="G33" s="20">
         <f>SUM(G22:G32)</f>
-        <v>0.11642956043956044</v>
-      </c>
-      <c r="H33" s="22">
+        <v>0.35582302197802196</v>
+      </c>
+      <c r="H33" s="18">
         <f>A22-F33</f>
-        <v>16080982</v>
-      </c>
-      <c r="I33" s="33">
+        <v>11724021</v>
+      </c>
+      <c r="I33" s="21">
         <f>1-G33</f>
-        <v>0.88357043956043957</v>
-      </c>
-      <c r="J33" s="97"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
+        <v>0.64417697802197804</v>
+      </c>
+      <c r="J33" s="81"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
@@ -2117,12 +2125,12 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="107" t="s">
+      <c r="A37" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="107"/>
-      <c r="C37" s="107"/>
-      <c r="D37" s="107"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="91"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -2131,14 +2139,14 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="104" t="s">
+      <c r="A38" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="104"/>
-      <c r="C38" s="12" t="s">
+      <c r="B38" s="88"/>
+      <c r="C38" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E38" s="1"/>
@@ -2149,27 +2157,27 @@
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="102">
+      <c r="A39" s="86">
         <f>A22-F33</f>
-        <v>16080982</v>
-      </c>
-      <c r="B39" s="103"/>
-      <c r="C39" s="68">
+        <v>11724021</v>
+      </c>
+      <c r="B39" s="87"/>
+      <c r="C39" s="56">
         <f>1-G33</f>
-        <v>0.88357043956043957</v>
-      </c>
-      <c r="D39" s="23">
+        <v>0.64417697802197804</v>
+      </c>
+      <c r="D39" s="19">
         <f>(C39/0.8)*100</f>
-        <v>110.44630494505495</v>
-      </c>
-      <c r="E39" s="78" t="s">
+        <v>80.522122252747252</v>
+      </c>
+      <c r="E39" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="F39" s="78"/>
-      <c r="G39" s="78"/>
-      <c r="H39" s="78"/>
-      <c r="I39" s="78"/>
-      <c r="J39" s="78"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="65"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
@@ -2207,113 +2215,113 @@
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="52"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="100"/>
-      <c r="J43" s="101"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="85"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="53"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="54"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="42"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="53"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="54"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="42"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="53"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="54"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="42"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="53"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="54"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="42"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="53"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="54"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="54"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="42"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="53"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="56"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="53"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="54"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="42"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="53"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="54"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="42"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="53"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="54"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="54"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="42"/>
     </row>
     <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="108"/>
-      <c r="C53" s="108"/>
-      <c r="D53" s="109"/>
-      <c r="E53" s="58"/>
+      <c r="B53" s="92"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="93"/>
+      <c r="E53" s="46"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -2321,40 +2329,40 @@
       <c r="J53" s="1"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="52"/>
-      <c r="B54" s="52"/>
-      <c r="C54" s="52"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="52"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="100"/>
-      <c r="J54" s="101"/>
+      <c r="A54" s="40"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="84"/>
+      <c r="J54" s="85"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="53"/>
+      <c r="A55" s="41"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="105"/>
-      <c r="J55" s="105"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="89"/>
+      <c r="J55" s="89"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="53"/>
+      <c r="A56" s="41"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="105"/>
-      <c r="J56" s="105"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="89"/>
+      <c r="J56" s="89"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
@@ -2367,12 +2375,12 @@
       <c r="H57" s="1"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B62" s="100"/>
-      <c r="C62" s="101"/>
+      <c r="B62" s="84"/>
+      <c r="C62" s="85"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B69" s="100"/>
-      <c r="C69" s="101"/>
+      <c r="B69" s="84"/>
+      <c r="C69" s="85"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
